--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H2">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I2">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J2">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N2">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q2">
-        <v>16.50833312082111</v>
+        <v>70.43319358613334</v>
       </c>
       <c r="R2">
-        <v>148.57499808739</v>
+        <v>633.8987422752</v>
       </c>
       <c r="S2">
-        <v>0.05350784088091295</v>
+        <v>0.1837687562432554</v>
       </c>
       <c r="T2">
-        <v>0.05350784088091295</v>
+        <v>0.1837687562432553</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H3">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I3">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J3">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>81.613078</v>
       </c>
       <c r="O3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q3">
-        <v>41.19323083168378</v>
+        <v>164.4485385460444</v>
       </c>
       <c r="R3">
-        <v>370.739077485154</v>
+        <v>1480.0368469144</v>
       </c>
       <c r="S3">
-        <v>0.1335180738467446</v>
+        <v>0.4290662094949695</v>
       </c>
       <c r="T3">
-        <v>0.1335180738467446</v>
+        <v>0.4290662094949694</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H4">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I4">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J4">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N4">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O4">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P4">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q4">
-        <v>8.958422094724668</v>
+        <v>52.33206990973333</v>
       </c>
       <c r="R4">
-        <v>80.62579885252201</v>
+        <v>470.9886291875999</v>
       </c>
       <c r="S4">
-        <v>0.02903659748566669</v>
+        <v>0.1365407261731796</v>
       </c>
       <c r="T4">
-        <v>0.02903659748566668</v>
+        <v>0.1365407261731796</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H5">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I5">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J5">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N5">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q5">
-        <v>25.71374578178933</v>
+        <v>33.17761458502222</v>
       </c>
       <c r="R5">
-        <v>231.423712036104</v>
+        <v>298.5985312652</v>
       </c>
       <c r="S5">
-        <v>0.08334499962378968</v>
+        <v>0.08656442590454941</v>
       </c>
       <c r="T5">
-        <v>0.08334499962378968</v>
+        <v>0.08656442590454939</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H6">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I6">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J6">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N6">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O6">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P6">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q6">
-        <v>5.962070039757221</v>
+        <v>24.73349960111111</v>
       </c>
       <c r="R6">
-        <v>53.65863035781499</v>
+        <v>222.60149641</v>
       </c>
       <c r="S6">
-        <v>0.01932463396960577</v>
+        <v>0.06453270436588715</v>
       </c>
       <c r="T6">
-        <v>0.01932463396960577</v>
+        <v>0.06453270436588715</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H7">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I7">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J7">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N7">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q7">
-        <v>9.104915265141113</v>
+        <v>26.98352856662222</v>
       </c>
       <c r="R7">
-        <v>81.94423738627</v>
+        <v>242.8517570996</v>
       </c>
       <c r="S7">
-        <v>0.02951142030365897</v>
+        <v>0.07040330320502146</v>
       </c>
       <c r="T7">
-        <v>0.02951142030365897</v>
+        <v>0.07040330320502143</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.340208</v>
       </c>
       <c r="I8">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J8">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N8">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O8">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P8">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q8">
-        <v>1.236343466648889</v>
+        <v>1.321323418154667</v>
       </c>
       <c r="R8">
-        <v>11.12709119984</v>
+        <v>11.891910763392</v>
       </c>
       <c r="S8">
-        <v>0.004007313700507311</v>
+        <v>0.003447493273926673</v>
       </c>
       <c r="T8">
-        <v>0.004007313700507311</v>
+        <v>0.003447493273926672</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.340208</v>
       </c>
       <c r="I9">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J9">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>81.613078</v>
       </c>
       <c r="O9">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P9">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q9">
         <v>3.085046893358222</v>
@@ -1013,10 +1013,10 @@
         <v>27.765422040224</v>
       </c>
       <c r="S9">
-        <v>0.009999446768599972</v>
+        <v>0.008049262026593323</v>
       </c>
       <c r="T9">
-        <v>0.009999446768599972</v>
+        <v>0.008049262026593323</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.340208</v>
       </c>
       <c r="I10">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J10">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N10">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O10">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P10">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q10">
-        <v>0.6709148977813334</v>
+        <v>0.9817471844106666</v>
       </c>
       <c r="R10">
-        <v>6.038234080032001</v>
+        <v>8.835724659696</v>
       </c>
       <c r="S10">
-        <v>0.00217461129069656</v>
+        <v>0.002561497638238365</v>
       </c>
       <c r="T10">
-        <v>0.00217461129069656</v>
+        <v>0.002561497638238365</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.340208</v>
       </c>
       <c r="I11">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J11">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N11">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O11">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P11">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q11">
-        <v>1.925756002602667</v>
+        <v>0.6224104981991111</v>
       </c>
       <c r="R11">
-        <v>17.331804023424</v>
+        <v>5.601694483792</v>
       </c>
       <c r="S11">
-        <v>0.006241880691925436</v>
+        <v>0.001623944582136828</v>
       </c>
       <c r="T11">
-        <v>0.006241880691925435</v>
+        <v>0.001623944582136828</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.340208</v>
       </c>
       <c r="I12">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J12">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N12">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O12">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P12">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q12">
-        <v>0.4465118487377777</v>
+        <v>0.4639992959555556</v>
       </c>
       <c r="R12">
-        <v>4.01860663864</v>
+        <v>4.1759936636</v>
       </c>
       <c r="S12">
-        <v>0.001447262105679808</v>
+        <v>0.001210630516295175</v>
       </c>
       <c r="T12">
-        <v>0.001447262105679808</v>
+        <v>0.001210630516295175</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.340208</v>
       </c>
       <c r="I13">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J13">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N13">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O13">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P13">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q13">
-        <v>0.681886076568889</v>
+        <v>0.5062097341351111</v>
       </c>
       <c r="R13">
-        <v>6.136974689120001</v>
+        <v>4.555887607216</v>
       </c>
       <c r="S13">
-        <v>0.002210171760947803</v>
+        <v>0.00132076267600271</v>
       </c>
       <c r="T13">
-        <v>0.002210171760947803</v>
+        <v>0.001320762676002709</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.720530333333333</v>
+        <v>0.06793033333333333</v>
       </c>
       <c r="H14">
-        <v>8.161591</v>
+        <v>0.203791</v>
       </c>
       <c r="I14">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="J14">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N14">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O14">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P14">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q14">
-        <v>29.65988368971444</v>
+        <v>0.7914976153093334</v>
       </c>
       <c r="R14">
-        <v>266.93895320743</v>
+        <v>7.123478537784001</v>
       </c>
       <c r="S14">
-        <v>0.09613546839650203</v>
+        <v>0.002065113406465429</v>
       </c>
       <c r="T14">
-        <v>0.09613546839650203</v>
+        <v>0.002065113406465429</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.720530333333333</v>
+        <v>0.06793033333333333</v>
       </c>
       <c r="H15">
-        <v>8.161591</v>
+        <v>0.203791</v>
       </c>
       <c r="I15">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="J15">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>81.613078</v>
       </c>
       <c r="O15">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P15">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q15">
-        <v>74.0102847652331</v>
+        <v>1.848001197633111</v>
       </c>
       <c r="R15">
-        <v>666.092562887098</v>
+        <v>16.632010778698</v>
       </c>
       <c r="S15">
-        <v>0.2398867597222423</v>
+        <v>0.00482165956609333</v>
       </c>
       <c r="T15">
-        <v>0.2398867597222423</v>
+        <v>0.00482165956609333</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>2.720530333333333</v>
+        <v>0.06793033333333333</v>
       </c>
       <c r="H16">
-        <v>8.161591</v>
+        <v>0.203791</v>
       </c>
       <c r="I16">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="J16">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N16">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O16">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P16">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q16">
-        <v>16.09525052761267</v>
+        <v>0.5880850551963333</v>
       </c>
       <c r="R16">
-        <v>144.857254748514</v>
+        <v>5.292765496766999</v>
       </c>
       <c r="S16">
-        <v>0.05216893176717604</v>
+        <v>0.001534385332485522</v>
       </c>
       <c r="T16">
-        <v>0.05216893176717603</v>
+        <v>0.001534385332485522</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>2.720530333333333</v>
+        <v>0.06793033333333333</v>
       </c>
       <c r="H17">
-        <v>8.161591</v>
+        <v>0.203791</v>
       </c>
       <c r="I17">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="J17">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N17">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O17">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P17">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q17">
-        <v>46.19889261580533</v>
+        <v>0.3728356118565556</v>
       </c>
       <c r="R17">
-        <v>415.790033542248</v>
+        <v>3.355520506709</v>
       </c>
       <c r="S17">
-        <v>0.1497427376143195</v>
+        <v>0.0009727733925664483</v>
       </c>
       <c r="T17">
-        <v>0.1497427376143195</v>
+        <v>0.0009727733925664483</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>26</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>2.720530333333333</v>
+        <v>0.06793033333333333</v>
       </c>
       <c r="H18">
-        <v>8.161591</v>
+        <v>0.203791</v>
       </c>
       <c r="I18">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="J18">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N18">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O18">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P18">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q18">
-        <v>10.71182066868389</v>
+        <v>0.2779443179527777</v>
       </c>
       <c r="R18">
-        <v>96.40638601815499</v>
+        <v>2.501498861575</v>
       </c>
       <c r="S18">
-        <v>0.03471982250963344</v>
+        <v>0.0007251904821353701</v>
       </c>
       <c r="T18">
-        <v>0.03471982250963343</v>
+        <v>0.0007251904821353701</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>2.720530333333333</v>
+        <v>0.06793033333333333</v>
       </c>
       <c r="H19">
-        <v>8.161591</v>
+        <v>0.203791</v>
       </c>
       <c r="I19">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="J19">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N19">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O19">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P19">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q19">
-        <v>16.35844914155444</v>
+        <v>0.3032291654785556</v>
       </c>
       <c r="R19">
-        <v>147.22604227399</v>
+        <v>2.729062489307</v>
       </c>
       <c r="S19">
-        <v>0.05302202756139109</v>
+        <v>0.0007911617201984321</v>
       </c>
       <c r="T19">
-        <v>0.05302202756139109</v>
+        <v>0.000791161720198432</v>
       </c>
     </row>
   </sheetData>
